--- a/Resources/Model evaluation.xlsx
+++ b/Resources/Model evaluation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\svann\Documents\2U Bootcamp\Bootcamp Files\Stealing_Bases_Project\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F21DBCF1-38A9-4AEC-B0A5-CAF9E80339A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94EDE155-691B-4061-80F3-3FD122C198B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4428" yWindow="0" windowWidth="18612" windowHeight="9720" xr2:uid="{71844840-CD57-4517-812A-B016BE0B0388}"/>
+    <workbookView xWindow="5544" yWindow="1524" windowWidth="15660" windowHeight="10236" xr2:uid="{71844840-CD57-4517-812A-B016BE0B0388}"/>
   </bookViews>
   <sheets>
     <sheet name="Linear Regression" sheetId="1" r:id="rId1"/>
@@ -58,9 +58,6 @@
     <t>Accuracy - Training</t>
   </si>
   <si>
-    <t>Accuary- Test</t>
-  </si>
-  <si>
     <t>MAE - Training</t>
   </si>
   <si>
@@ -77,13 +74,16 @@
   </si>
   <si>
     <t>R-squared Test</t>
+  </si>
+  <si>
+    <t>Accurary- Test</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -95,6 +95,13 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -120,12 +127,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -443,15 +454,15 @@
   <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.109375" customWidth="1"/>
     <col min="5" max="5" width="12.77734375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.77734375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.77734375" bestFit="1" customWidth="1"/>
@@ -477,33 +488,36 @@
         <v>5</v>
       </c>
       <c r="D2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" t="s">
         <v>6</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>7</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>8</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>9</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>10</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>11</v>
-      </c>
-      <c r="J2" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="J3">
-        <v>0.99</v>
+      <c r="F3" s="3">
+        <v>6.8550249672209298E-5</v>
+      </c>
+      <c r="J3" s="4">
+        <v>0.99767780042060195</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
